--- a/document/tool/shapes.xlsx
+++ b/document/tool/shapes.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376783ED-03DC-4EAD-8226-5BE7EAFB60EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B0380-E296-49C7-B98B-2FA46BB6ABA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0001_01" sheetId="138" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="139" r:id="rId1"/>
+    <sheet name="0001_01" sheetId="138" r:id="rId2"/>
+    <sheet name="0002_09" sheetId="140" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -53,6 +55,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -69,9 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -80,6 +89,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF5B9BD5"/>
       <color rgb="FF203864"/>
@@ -88,7 +98,6 @@
       <color rgb="FF585858"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF4472C4"/>
-      <color rgb="FFFFFFFF"/>
       <color rgb="FFF2F2F2"/>
     </mruColors>
   </colors>
@@ -1232,6 +1241,197 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>462917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A053B2-CB69-4CF0-8E7B-0FBE545AA1F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="95250"/>
+          <a:ext cx="10058400" cy="3225167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>250525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矢印: 下 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9C9E1C-DE14-4912-8D02-546BCF79DCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="428625"/>
+          <a:ext cx="590550" cy="774400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10882</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6417142" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E497F1-F7B7-47CA-BB06-2B5B41521B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3344632" y="1670001"/>
+          <a:ext cx="6417142" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>一行ずつ処理を実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1539,10 +1739,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BA021-873A-4BD1-8DAE-5F8CFCF14CE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE573E8-D70B-4AEB-9C24-0711A8405B3A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
@@ -1558,4 +1777,23 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E221BA-4086-4386-9355-662F8256104F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/tool/shapes.xlsx
+++ b/document/tool/shapes.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B0380-E296-49C7-B98B-2FA46BB6ABA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E4D6C-F2BE-4735-8159-A1B68B00F3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="139" r:id="rId1"/>
-    <sheet name="0001_01" sheetId="138" r:id="rId2"/>
-    <sheet name="0002_09" sheetId="140" r:id="rId3"/>
+    <sheet name="0002_01" sheetId="138" r:id="rId2"/>
+    <sheet name="0003_09" sheetId="140" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/document/tool/shapes.xlsx
+++ b/document/tool/shapes.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E4D6C-F2BE-4735-8159-A1B68B00F3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03150364-0599-46EB-B172-94F014782295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="139" r:id="rId1"/>
     <sheet name="0002_01" sheetId="138" r:id="rId2"/>
     <sheet name="0003_09" sheetId="140" r:id="rId3"/>
+    <sheet name="0004_01" sheetId="141" r:id="rId4"/>
+    <sheet name="0004_02" sheetId="142" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1432,6 +1434,1434 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7143750" cy="1428750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72384734-84AC-4217-9D23-34A62B887D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="952500"/>
+          <a:ext cx="7143750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>１ ＋ ２ ＝ ３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7143750" cy="1428750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C6A9AD-457F-4FCD-9ADF-BBC814298937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2857500"/>
+          <a:ext cx="7143750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>あ ＋ ５</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="7200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEF5154-6880-4B77-BDD9-C78FD37CE6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724274" y="552450"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383DC3ED-631A-41A8-8AB1-E0C178570F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543674" y="1028700"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9842DFA-2438-49A1-AB26-2520F341FC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372599" y="1028700"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB872E10-9156-4830-89D5-564C575DA9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724274" y="2971800"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>文字</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B05DB88-F4AA-47B6-952C-31145554B22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543674" y="2971800"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8459844F-62A3-4BB6-94C9-7C534E72F622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372599" y="2981325"/>
+          <a:ext cx="1285875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>？？？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408052</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>342903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>455678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左大かっこ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C582A10-4932-44DD-A6C1-E9F800CE78C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5667376" y="-153921"/>
+          <a:ext cx="112775" cy="2058924"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 87505"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408053</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>390529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大かっこ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EBA42B-F936-45E8-9FA5-AAEF3009FF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5667377" y="2274955"/>
+          <a:ext cx="112775" cy="2058924"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 87505"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410505</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>307926</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2236510" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F48668D-794A-4367-A6DE-4BD77DC075E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696755" y="307926"/>
+          <a:ext cx="2236510" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>データ型が一致！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>346026</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2236510" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76ABA99-73CD-459C-874C-1A24C930BB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696755" y="2727276"/>
+          <a:ext cx="2236510" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>データ型が違う！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177702</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59DBADC-A69F-4799-A5F3-46FEC158CC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857501" y="1130202"/>
+          <a:ext cx="7029450" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>１と１は同じ数？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177702</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542F0023-1FA1-4BC1-AB21-F5B9A111BFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="1130202"/>
+          <a:ext cx="7029450" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>（ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DF35DF-40A6-4E42-8D50-BF1633185259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857501" y="3810000"/>
+          <a:ext cx="7029450" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>２と３は同じ数？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09F8BDA-FEC3-49B7-B504-2A5915CD523C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="3810000"/>
+          <a:ext cx="7029450" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>偽（ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB933F0-723A-423B-88B3-BBE2B9F90E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="1304925"/>
+          <a:ext cx="2324100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>そのとおり！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5956CC3A-1349-491F-BB01-999848E42EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="3971925"/>
+          <a:ext cx="2324100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>そうではない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1783,7 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E221BA-4086-4386-9355-662F8256104F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
@@ -1796,4 +3226,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303575B6-C782-4FC4-B551-5673BCA85328}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F511C9E3-F2D3-4174-9B18-CEFB91251FAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/document/tool/shapes.xlsx
+++ b/document/tool/shapes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03150364-0599-46EB-B172-94F014782295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199541B8-7D98-4019-AA1D-2F6887C9C248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="139" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="0003_09" sheetId="140" r:id="rId3"/>
     <sheet name="0004_01" sheetId="141" r:id="rId4"/>
     <sheet name="0004_02" sheetId="142" r:id="rId5"/>
+    <sheet name="0005_01" sheetId="143" r:id="rId6"/>
+    <sheet name="0005_02" sheetId="144" r:id="rId7"/>
+    <sheet name="0005_03" sheetId="145" r:id="rId8"/>
+    <sheet name="0005_04" sheetId="146" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2862,6 +2866,1960 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7029450" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B72EE2-B2CD-4991-98C2-3EEAF83FEDCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="1876425"/>
+          <a:ext cx="7029450" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>consoleOutput </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>( ) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A437EEC9-9C28-4BE6-A29F-A9B5F8055749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="2857500"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460DD88A-0CCE-4BB4-9B8D-83518123A936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9810750" y="2867026"/>
+          <a:ext cx="657225" cy="752474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8629650" cy="693138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9DD2C6-F951-4CAB-BC2E-EDA39F47F712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="3571875"/>
+          <a:ext cx="8629650" cy="693138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>この括弧が関数を呼び出すための合図になっている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334496</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>279026</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7442388" cy="1251048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB17BA6B-159E-44B0-AFCA-8CC9B7CF8BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5634878" y="760879"/>
+          <a:ext cx="7442388" cy="1251048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>howMuchCoffee</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>引数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> );</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871B62E2-C6DF-4766-8D9C-632B247B7AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="1828800"/>
+          <a:ext cx="1409700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2292FEC-BDD2-4F93-8472-686BBA512ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11029950" y="1838325"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10172700" cy="1122359"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577EBECA-0DA9-49D8-81CD-6DCF14DCCAF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159624" y="2222687"/>
+          <a:ext cx="10172700" cy="1122359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>関数呼び出しの際、丸括弧の中に引数を指定すると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>……</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>関数内部の処理へ、任意のデータを渡すことができる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10696576" cy="3255058"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9577E1-ECB1-4753-93CE-A5F42448CD5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495799" y="3609975"/>
+          <a:ext cx="10696576" cy="3255058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>function </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>howMuchCoffee</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>引数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> ){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>console.log( 350 * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>引数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> );</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>397248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>43703</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>397248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32190ACD-770A-4EB3-90D0-BAFE799EF0CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12109077" y="4733924"/>
+          <a:ext cx="1426508" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>310403</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEFB9BD-F107-42BA-9959-A3DFB516863B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429315" y="5914465"/>
+          <a:ext cx="1426509" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>403411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>459441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0308F9-1AB2-4476-B713-31BA7F0F9640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11250706" y="3294529"/>
+          <a:ext cx="1064559" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>403411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3FEB6B-A683-4859-9D89-CEA5E4031C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11261912" y="3294529"/>
+          <a:ext cx="201705" cy="1725706"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181536</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>429746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10172700" cy="1122359"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02081C11-DC4C-4E59-A307-77329FD194AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518212" y="5248275"/>
+          <a:ext cx="10172700" cy="1122359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>と書かれた後に記述されている内容が</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>関数を呼び出している部分に対して返却される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299196</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>395007</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>416048</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8956AC6C-2CCB-470B-8FE6-B1BF86D8464B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5117725" y="1979519"/>
+          <a:ext cx="10696576" cy="3255058"/>
+          <a:chOff x="4546225" y="3649196"/>
+          <a:chExt cx="10696576" cy="3255058"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27394F65-D697-450D-8F70-B30222F5AAAC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4546225" y="3649196"/>
+            <a:ext cx="10696576" cy="3255058"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>function </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>howMuchCoffee</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>( </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>引数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t> ){</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>return</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>350 * </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>引数  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>;</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直線コネクタ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C89F691-4230-482F-A84F-34385AC40932}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5207374" y="5959288"/>
+            <a:ext cx="1796302" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>280146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>280147</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03463854-6484-4CDF-9135-99EA8A39F383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7968908" y="4134970"/>
+          <a:ext cx="2979239" cy="963706"/>
+          <a:chOff x="7935291" y="4235823"/>
+          <a:chExt cx="3293006" cy="963706"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="左中かっこ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF02B25-EF86-4805-B1ED-F087D2A7180A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="9363279" y="2807835"/>
+            <a:ext cx="437029" cy="3293006"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 83612"/>
+              <a:gd name="adj2" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC30D4-B2EE-4039-97B3-54ABFB7697A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9581029" y="4728883"/>
+            <a:ext cx="0" cy="470646"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10591800" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693FAA12-2CE6-4383-8901-989BF105C915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="1676400"/>
+          <a:ext cx="10591800" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>console.log( howMuchCoffee(10) );</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A83F1C-C39F-4692-8CCD-62B1300E27F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="2686050"/>
+          <a:ext cx="5676900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C6539B-97B7-422F-B0E9-A7CC6A764AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10887075" y="2695575"/>
+          <a:ext cx="219075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12020550" cy="1293944"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39AAECE-21A3-4A09-944B-8B2C884C8108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="3429000"/>
+          <a:ext cx="12020550" cy="1293944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>コンソールへ出力する値をまず確定させる必要があるので、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>必ず </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>howMuchCoffee(10)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>の部分が先に実行されることに注意</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3252,8 +5210,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F511C9E3-F2D3-4174-9B18-CEFB91251FAF}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A40B445-3BEB-443D-AFFF-E4AB3B471E79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558ADE71-70FA-4B98-A9BF-62735C9EB9E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54AF68-CCA5-4A81-9DCE-5A45AC84212C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="6.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09319B8-3EBF-4F33-88F2-9FE55239795D}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1"/>
